--- a/biology/Botanique/Vernonia/Vernonia.xlsx
+++ b/biology/Botanique/Vernonia/Vernonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vernonia est un genre de plantes à fleurs de la famille des Astéracées.
 L'espèce Vernonia galamensis produit des graines dont l'huile permet de produire des époxys.
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (24 juillet 2017)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (24 juillet 2017) :
 Vernonia acaulis (Walt.) Gleason
 Vernonia acrophila Merr.
 Vernonia actaea J.Kost.
@@ -894,7 +908,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles des espèces Vernonia amygdalina, Vernonia hymenolepis et Vernonia calvoana sont utilisées au Cameroun et au Nigeria pour préparer un plat nommé ndolé.
 </t>
